--- a/Job Postings_Data Scientist_NY.xlsx
+++ b/Job Postings_Data Scientist_NY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,7718 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Angi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kohler</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prudential</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Newark, NJ 07102 (Central Business District area)+2 locations</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Scientist, Experimentation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dow Jones</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>New York, NY 10176 (Murray Hill area)+2 locations</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Music Expression</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY+6 locations</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Software Development Manager, AWS AI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amazon Dev Center U.S., Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>New York, NY+3 locations</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist, ML Model Evaluation - Apple Media Produc...</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Principal Associate Data Scientist</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Capital One - US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>New York, NY 10011 (Flatiron area)+1 location</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022 Graduate Fellow Data Science Co-op</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Merck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kenilworth, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Principal Data Scientist, Topline Forecasting</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>New York, NY+2 locations</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sr Data Scientist</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fiserv, Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Short Hills, NJ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Data Science Analyst</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eBay Inc.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Senior Applied Scientist I, Recommendations &amp; Personalizatio...</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Etsy</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Remote in Brooklyn, NY 11201</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bloomberg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>New York, NY 10261+3 locations</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Data Scientist — Apple Cloud Services</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>New York, NY+8 locations</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Head of Data Science and Strategy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mint House</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Brand Sales Specialist, Information Architecture</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)+1 location</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Software Engineer III, Machine Learning, Google Assistant</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>New York, NY (Chelsea area)+5 locations</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Starz</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Software Development Manager, AWS AI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amazon Dev Center U.S., Inc.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>New York, NY+3 locations</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Business Analyst, Prime Gaming</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senior Deep Learning Data Scientist, RAPIDS - AI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior MLOps Engineer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Saks.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>New York, NY 10281 (Battery Park area)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Principal Statistical Programmer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Shionogi Inc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hybrid remote in Florham Park, NJ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer-NLP &amp; Machine Learning-Sports</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Associate, Data Scientist, Financial Services Statistical Mo...</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>New York, NY+7 locations</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senior General Counsel - Data Analytics and Artificial Intel...</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Data Operations Manager: OmniSales (SQL Database/ Machine Le...</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Humanity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Data Scientist, Engagement &amp; Experimentation</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cityblock Health</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Staff Data Scientist – REMOTE USA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mandiant</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10018+1 location</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Senior General Counsel - Data Analytics and Artificial Intel...</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Software Engineer, Recommendations - Machine Learning</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Twitch</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>New York, NY 10011 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Senior Associate, Data Scientist, Financial Services Statist...</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>New York, NY+12 locations</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Full Stack Developer - Machine Learning</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Saks.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>New York, NY 10281 (Battery Park area)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Data Scientist, Google Cloud Finance Business Intelligence</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>New York, NY (Chelsea area)+15 locations</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jr. Data Scientist</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Paramount</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>New York, NY 10036+1 location</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CVS Health</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>New York, NY+5 locations</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Staff Machine Learning Scientist</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Saks.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>New York, NY 10281 (Battery Park area)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Data Scientist, Marketing, Measurement Operations, YouTube</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Senior Associate, Federal Data Analyst</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Short Hills, NJ 07078+2 locations</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>9920A Associate Data Scientist</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PSEG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Newark, NJ 07101 (Central Business District area)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Senior Associate, Federal Data Analyst</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Short Hills, NJ 07078+2 locations</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AVP, Senior Data Analyst II</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Guy Carpenter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>New York, NY 10036 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Customer Engineer, Data &amp; AI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Associate Director, RWE Data Strategy &amp; Partnerships</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Merck</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rahway, NJ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Data Science Product Manager</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guy Carpenter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Restaurant Depot</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Whitestone, NY 11357</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Senior Consultant, Artificial Intelligence Strategic Growth...</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>New York, NY+4 locations</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Head of Data for Personalization &amp; Insights</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>New York, NY+2 locations</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CTO - Product Owner - Machine Learning Lifecycle &amp; Governanc...</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Remote Hadoop Big Data Engineer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RADAR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+2 locations</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist, Amazon Style</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>New York, NY+10 locations</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sr. AWS Data Engineer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Cognizant</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Parsippany, NJ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY+3 locations</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Senior Specialist, Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Data Scientist II</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Braze</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IM Medical Excellence Data Analyst, NA, Sr Manager</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10017</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CVS Health</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>New York, NY+7 locations</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CVS Health</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>New York, NY+7 locations</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Brand Techical Sales</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Prime Solutions Data Scientist</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>New York, NY 10019 (Midtown area)+1 location</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>New York, NY+6 locations</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UX Design Manager, Cloud AI and Industry Solutions</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>New York, NY (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Data Protection Software Sales Leader</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Brand Techical Sales</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IM Medical Excellence Data Analyst, NA, Sr Manager</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10017</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fanatics Inc.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10017</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Data Scientist - Systematic Data Platform</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Millennium Management LLC</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>New York, NY+2 locations</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Data Scientist Associate</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TransUnion</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>White Plains, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist I</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TransUnion</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>White Plains, NY</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Data Scientist - Customer Analytics</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Change Healthcare</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MRGR Qualitative Model Review Associate</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst (REMOTE)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ryder System</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10176</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst (REMOTE)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ryder System</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10176</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Data Science Manager - Life Sciences</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>New York, NY+5 locations</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Knowledge Base</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Etsy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Remote in Brooklyn, NY 11201+3 locations</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Data Scientist IV</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AECOM</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10176</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Software and Data Lead Engineer</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Data Scientist, Experimentation and Causal Inference</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Hearst Media Services</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>New York, NY 10019 (Midtown area)+2 locations</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Plymouth Rock Assurance</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Woodbridge, NJ 07095</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Senior Associate, AI/Analytics Data Engineer - State and Loc...</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Product Manager, Machine Learning</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Ripple</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Applied AI ML Associate Sr</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst, FP&amp;A - Business Intelligence</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dow Jones</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>New York, NY 10176 (Murray Hill area)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Kubernetes and Docker Cloud Developer</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Frontier Technology Inc.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Test Data Management Lead</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WELLS FARGO BANK</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Vice President - Human Resources Data and Analytics - Produc...</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Data Analyst,Tech. Consulting-Data&amp;Analytics(Advanced Analyt...</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>EY</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)+1 location</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Manager, Data Science</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NBCUniversal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>New York, NY 10112 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Software Engineer II, Machine Learning, Retrieval Sciences</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Etsy</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Remote in Brooklyn, NY 11201+4 locations</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Radancy</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DVP, Advanced Analytics &amp; Data Science</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SAKS OFF 5TH</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>New York, NY 10022 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Radancy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Statistician</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fiserv, Inc.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Short Hills, NJ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Machine Learning Architect - Manager...</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>EY</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VMLY&amp;R</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>New York, NY 10019 (Midtown area)+1 location</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Vice President, Artificial Intelligence Software Engineering</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Change Healthcare</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Director, Data Science</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Merck</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Kenilworth, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Head of AI and Machine Learning</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Duolingo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Software Engineer - Applied AI</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+5 locations</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CIB QR - Quantitative Research - Wholesale Credit Model Impl...</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Software Engineer - Applied AI</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+6 locations</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Risk Solutions</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>New York, NY 10169 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Click Therapeutics</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Director - Data Science</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Twitch</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>New York, NY 10011 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SecurityScorecard</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>10 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Human Resources - HR Chief Data &amp; Analytics Office - Client...</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>10 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Associate Data Science Analyst/Engineer</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NYU Langone</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>New York, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ACA Section Leader - Big Data</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Raytheon Missiles &amp; Defense</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>New York, NY 10025 (Upper West Side area)+1 location</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Principal Statistical Programmer</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Medidata Solutions</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>New York, NY 10014 (West Village area)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Principal Statistical Programmer</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Medidata Solutions</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>New York, NY 10014 (West Village area)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DevOps Engineer Senior Associate - Applied AI</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>11 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>NBCUniversal</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>New York, NY 10112 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Associate Data Scientist</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cognizant</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Allendale, NJ</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Industrial Data, AI and Automation Software Sales Manager</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Director of Data Science &amp; Research</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Innocence Project</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>New York, NY 10013 (Tribeca area)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Senior, Data Analyst</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Bloomingdale’s</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Long Island City, NY 11101</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>K Health</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10001</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Senior Statistical Programmer</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Medidata Solutions</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>New York, NY 10014 (West Village area)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Customer Analytics</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Spring Health</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10003</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sr. Data Scientist</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NBCUniversal</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>New York, NY 10112 (Midtown area)+7 locations</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Data Scientist, Data and Analytics</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>New York, NY 10036 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Director of Data Science &amp; Research</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Innocence Project</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>New York, NY 10013 (Tribeca area)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Data Scientist - Visits</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Foursquare</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>12 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Data Scientist - Marketing - Remote</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Infinity Consulting Solutions, Inc.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10011</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Director - Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Moody's</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)+2 locations</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Chief Statistician</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Social Science Research Council</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Data Scientist - Advertiser Behavior Analytics, Advertiser B...</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>New York, NY+20 locations</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sr. Data Analyst</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Zachary Piper Solutions</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Remote in Queens, NY</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sr. Data Science Analyst</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Fair Lawn, NJ 07410</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Data Scientist Associate - Payments Data Analytics</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>New York, NY+16 locations</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sr. Data Analyst</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Zachary Piper Solutions</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Remote in Queens, NY</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Econometric Data Scientist, International</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Warner Music Group</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10019+1 location</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>AbleTo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10018</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>GAF Materials Corporation</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Parsippany, NJ 07054</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Analyst - Data Science</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Essence</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst – Business Intelligence &amp; Enterprise Ana...</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Shake Shack</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10014</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sales Engineer - AI Apps - Supply Chain, Order Management</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Data Scientist Associate - Payments Data Analytics</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>New York, NY+16 locations</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer - North American Integrated Analyt...</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Munich Re</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>13 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sr. Product Manager - Tech, Search Thematic Ad Experience</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>New York, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Senior Scientist, SDTM - Statistical Programming (Hybrid PA/...</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Merck</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Rahway, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Entry Level - Associate Data Scientist (Commercial)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Discovery Communications</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>New York, NY 10003 (Flatiron area)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Discovery Communications</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>New York, NY 10003 (Flatiron area)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Applied Scientist, Amazon DSP Creative Management Experience</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Amazon Advertising LLC</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Director Data Science</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Publicis Sapient</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>New York, NY 10014 (SoHo area)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Affinity Solutions</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>New York, NY 10120 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Applied Scientist, Amazon DSP Creative Management Experience</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Amazon Advertising LLC</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Senior Product Manager, Machine Learning, Etsy Ads</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Etsy</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Remote in Brooklyn, NY 11201</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Contract Lifecycle Management / AI - Solution Engineer - Sr...</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>PRICE WATERHOUSE COOPERS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY+3 locations</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Data Scientist, Advertising Economics</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY+26 locations</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>14 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Software Development Engineer, Security Analytics and AI Res...</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Amazon Dev Center U.S., Inc.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Two Postdocs/Research Associates at NYU in Climate Physics &amp;...</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>New York University</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>New York, NY 10012 (Greenwich Village area)+1 location</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Hearst Media Services</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>New York, NY 10019 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Adweek, LLC</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>New York, NY 10016 (Gramercy area)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Brand Technical Sales Specialist in Data Science</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)+7 locations</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Linguistic Manager , ML Data Linguist, Lex AI Data</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Amazon.com Services LLC</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Consumer Reports</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yonkers, NY 10703 (Nepera Park area)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer - Marketplace Incentives</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>New York, NY 10007 (Financial District area)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sr Data Scientist, Advertising</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Roku</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Garment District area)+1 location</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>MFT Compliance Technology &amp; Analytics Lead</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>J.Crew</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>New York, NY 10281 (Battery Park area)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Data Science Manager</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Verizon</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10007+2 locations</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sr Data Scientist, Advertising</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Roku</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Garment District area)+1 location</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Senior Manager, Quality Data Management (Hybrid/Office)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Franklin Lakes, NJ</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer &amp; Analyst</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Life House</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Brand Technical Sales Specialist in Data Science</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)+7 locations</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>15 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Sr. Backend Python Engineer - Applied AI Systems</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>16 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CIB NYM Mobility - Data and Analytics Technology - Product M...</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>16 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Sr. Backend Python Engineer - Applied AI Systems</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>16 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Digitas</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>New York, NY 10104 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>16 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Data Scientist - Managing Consultant – Global Investigations...</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Guidehouse</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Turtle Bay area)</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>17 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>VP, Applied AI ML Lead</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>New York, NY+3 locations</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>17 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Applied AI ML Associate</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>17 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Sr Data Scientist / Business Intelligence Analyst</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Memorial Sloan Kettering Cancer Center</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Turtle Bay area)</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>17 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Python Developer, AI Research Technology</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>18 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sr. Data Engineer - Medical Data and Analytics</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Cardinal Health</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>18 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CIB QR - Quantitative Research - Wholesale Credit Model Impl...</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LSEG (London Stock Exchange Group)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Recruitics</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Recruitics</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SAP Master Data Governance (MDG) Lead - TruQua</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>New York, NY 10001 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Payment Platform</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Square</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Payment Platform</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Square</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>19 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Multiple Sr. System Analyst (Data Scientist), Systems Specia...</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Consolidated Edison Company of New York, Inc.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>New York, NY 10003 (Gramercy area)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Principal Data Scientist</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Verizon</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>New York, NY 10007 (Financial District area)+1 location</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Machine Learning Scientist - Time Series &amp; Reinforcement Lea...</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>New York, NY+5 locations</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Data Scientist - Analytics</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Twitch</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY 10011+1 location</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Metropolitan Transportation Authority</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Manhattan, NY</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>20 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Simpson Thacher &amp; Bartlett LLP</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Turtle Bay area)</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ViacomCBS Networks International</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>New York, NY 10036 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Technical Project Manager - Data Science</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Millennium Management LLC</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Managing Counsel- Legal Data Management &amp; Advisory Group</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BNY Mellon</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Junior Quant Researcher - NLP Team</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Balyasny Asset Management</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>New York, NY 10022 (Upper East Side area)</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ViacomCBS Networks International</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>New York, NY 10036 (Midtown area)</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Technical Lead Manager, On-Device Natural Language Understan...</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>New York, NY (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Junior Quant Researcher - NLP Team</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Balyasny Asset Management</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>New York, NY 10022 (Upper East Side area)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Midtown area)+4 locations</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Simpson Thacher &amp; Bartlett LLP</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Turtle Bay area)</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Azure Lead Data Architect</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>New York, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Software Developer - NLP Team</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Balyasny Asset Management</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>New York, NY 10022 (Upper East Side area)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>VP, Data Science</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Omnicom Health Group</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>New York, NY 10014 (SoHo area)+1 location</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Midtown area)+1 location</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>21 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst - Public Health</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chickasaw Nation Industries</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Queens, NY</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Senior Specialist, Data Scientist</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BNY Mellon</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Insights</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Peloton</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>New York, NY 10011 (Chelsea area)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Lemonade Insurance Company</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Lemonade Insurance Company</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Databricks Data Architect</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>New York, NY+1 location</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>New York, NY+6 locations</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Major League Baseball</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>22 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Data Scientist / Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>23 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Data Scientist, Marketing, Devices and Services</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>New York, NY (Chelsea area)+11 locations</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>23 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Principal Data Scientist</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Anthem</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>New York, NY 10006 (Financial District area)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>24 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Manager/Sr. Manager - Product Management - Natural Language...</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>24 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Paramount</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>25 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>wepay</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>25 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sr Qualitative Data Analyst</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Columbia University Medical Center</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Hybrid remote in New York, NY 10032</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>VP - Program Manager Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Senior Associate - Global Investment Data Analyst - Brooklyn...</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Software Engineer, AI Framework (University Grad)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>New York, NY+2 locations</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Senior Associate - Global Investment Data Analyst - Brooklyn...</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Senior Audit Data Analyst</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Ridgewood Savings Bank</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Lake Success, NY</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>26 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Parsippany, NJ 07054</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Senior Technical Manager</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Citi</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Java / Python Data Engineer</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Java / Python Data Engineer</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Lead Machine Learning Engineer, Fraud Risk</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Statistician, Advanced Analytics and Data Science</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Neustar, Inc.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>New York, NY 10017 (Murray Hill area)</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>AWS Data Platform Software Engineer - Associate</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ+1 location</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>28 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Assistant General Counsel - Data Analytics and Artificial In...</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Senior Solution Engineer, Machine Learning Platform</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Remote in New York, NY</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Assistant General Counsel - Data Analytics and Artificial In...</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>JPMorgan Chase Bank, N.A.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Senior/Staff Data Analyst</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bread Financial</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>One Demand Data Analytics (ODDA) Senior Data Products Lead</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MARS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Newark, NJ 07102 (Central Business District area)</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>29 days ago</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
